--- a/doc-contents/_components/xlsx-to-html-chart/corrected-example.xlsx
+++ b/doc-contents/_components/xlsx-to-html-chart/corrected-example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/_components/xlsx-to-html-chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1A5C42-D02A-6546-B72D-B886E0C8D15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23451F51-D60F-5B4B-9F6A-1F075D445E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="4600" windowWidth="25860" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6460" yWindow="4780" windowWidth="25860" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Corrected Sheet" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -231,6 +231,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
@@ -318,7 +323,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -336,7 +341,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1590,7 +1595,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/doc-contents/_components/xlsx-to-html-chart/corrected-example.xlsx
+++ b/doc-contents/_components/xlsx-to-html-chart/corrected-example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florin/dev/jekyll-site-template/doc-contents/_components/xlsx-to-html-chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23451F51-D60F-5B4B-9F6A-1F075D445E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3531754D-B21F-4C41-82CF-696F38FE5950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="4780" windowWidth="25860" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8480" yWindow="6120" windowWidth="25860" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Corrected Sheet" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Corrected Chart</a:t>
+              <a:t>Chart 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
